--- a/uipath/performance chart/global_performance_chart/performance_chart.xlsx
+++ b/uipath/performance chart/global_performance_chart/performance_chart.xlsx
@@ -384,7 +384,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -409,7 +409,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0081911902</x:v>
+        <x:v>0.0010491684</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -434,7 +434,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>1.21028604995734</x:v>
+        <x:v>1.21155584383592</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -459,7 +459,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>-0.0021009735</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -509,7 +509,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0012295352</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/performance chart/global_performance_chart/performance_chart.xlsx
+++ b/uipath/performance chart/global_performance_chart/performance_chart.xlsx
@@ -384,7 +384,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -409,7 +409,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0010491684</x:v>
+        <x:v>-0.0063815383</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -434,7 +434,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>1.21155584383592</x:v>
+        <x:v>1.20382425381589</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -459,7 +459,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0021009735</x:v>
+        <x:v>0.0100215077</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -484,7 +484,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>1.61759937954603</x:v>
+        <x:v>1.66964150690635</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -509,7 +509,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0012295352</x:v>
+        <x:v>-0.0030829522</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -534,7 +534,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>1.18592584791406</x:v>
+        <x:v>1.19269352645033</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
